--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Glg1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Glg1-Sele.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.62921866666666</v>
+        <v>21.27021466666666</v>
       </c>
       <c r="H2">
-        <v>64.88765599999999</v>
+        <v>63.810644</v>
       </c>
       <c r="I2">
-        <v>0.1903297306418182</v>
+        <v>0.1783704271312809</v>
       </c>
       <c r="J2">
-        <v>0.1903297306418182</v>
+        <v>0.1783704271312809</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N2">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O2">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P2">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q2">
-        <v>101.6466573187911</v>
+        <v>269.6892490810275</v>
       </c>
       <c r="R2">
-        <v>914.8199158691199</v>
+        <v>2427.203241729248</v>
       </c>
       <c r="S2">
-        <v>0.183867945808134</v>
+        <v>0.1760768714371772</v>
       </c>
       <c r="T2">
-        <v>0.183867945808134</v>
+        <v>0.1760768714371772</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.62921866666666</v>
+        <v>21.27021466666666</v>
       </c>
       <c r="H3">
-        <v>64.88765599999999</v>
+        <v>63.810644</v>
       </c>
       <c r="I3">
-        <v>0.1903297306418182</v>
+        <v>0.1783704271312809</v>
       </c>
       <c r="J3">
-        <v>0.1903297306418182</v>
+        <v>0.1783704271312809</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -617,28 +617,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N3">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P3">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q3">
-        <v>3.572231286809777</v>
+        <v>3.512939023845778</v>
       </c>
       <c r="R3">
-        <v>32.15008158128799</v>
+        <v>31.616451214612</v>
       </c>
       <c r="S3">
-        <v>0.006461784833684214</v>
+        <v>0.002293555694103678</v>
       </c>
       <c r="T3">
-        <v>0.006461784833684214</v>
+        <v>0.002293555694103677</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>53.56207</v>
+        <v>53.56207000000001</v>
       </c>
       <c r="H4">
         <v>160.68621</v>
       </c>
       <c r="I4">
-        <v>0.4713279066076088</v>
+        <v>0.4491675074115645</v>
       </c>
       <c r="J4">
-        <v>0.4713279066076088</v>
+        <v>0.4491675074115645</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N4">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O4">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P4">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q4">
-        <v>251.7153050454667</v>
+        <v>679.1240551118135</v>
       </c>
       <c r="R4">
-        <v>2265.4377454092</v>
+        <v>6112.116496006322</v>
       </c>
       <c r="S4">
-        <v>0.4553261001197893</v>
+        <v>0.4433919384969264</v>
       </c>
       <c r="T4">
-        <v>0.4553261001197893</v>
+        <v>0.4433919384969264</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>53.56207</v>
+        <v>53.56207000000001</v>
       </c>
       <c r="H5">
         <v>160.68621</v>
       </c>
       <c r="I5">
-        <v>0.4713279066076088</v>
+        <v>0.4491675074115645</v>
       </c>
       <c r="J5">
-        <v>0.4713279066076088</v>
+        <v>0.4491675074115645</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N5">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P5">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q5">
-        <v>8.846186503036666</v>
+        <v>8.846186503036668</v>
       </c>
       <c r="R5">
-        <v>79.61567852732999</v>
+        <v>79.61567852733</v>
       </c>
       <c r="S5">
-        <v>0.01600180648781945</v>
+        <v>0.005775568914638119</v>
       </c>
       <c r="T5">
-        <v>0.01600180648781945</v>
+        <v>0.005775568914638119</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>16.80195566666667</v>
+        <v>25.97301533333334</v>
       </c>
       <c r="H6">
-        <v>50.405867</v>
+        <v>77.91904600000001</v>
       </c>
       <c r="I6">
-        <v>0.1478514663694635</v>
+        <v>0.2178077612989132</v>
       </c>
       <c r="J6">
-        <v>0.1478514663694635</v>
+        <v>0.2178077612989132</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N6">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O6">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P6">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q6">
-        <v>78.9609026685378</v>
+        <v>329.3169867530258</v>
       </c>
       <c r="R6">
-        <v>710.64812401684</v>
+        <v>2963.852880777233</v>
       </c>
       <c r="S6">
-        <v>0.1428318388010196</v>
+        <v>0.2150071051633564</v>
       </c>
       <c r="T6">
-        <v>0.1428318388010196</v>
+        <v>0.2150071051633564</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>16.80195566666667</v>
+        <v>25.97301533333334</v>
       </c>
       <c r="H7">
-        <v>50.405867</v>
+        <v>77.91904600000001</v>
       </c>
       <c r="I7">
-        <v>0.1478514663694635</v>
+        <v>0.2178077612989132</v>
       </c>
       <c r="J7">
-        <v>0.1478514663694635</v>
+        <v>0.2178077612989132</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -865,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N7">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P7">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q7">
-        <v>2.774971793343444</v>
+        <v>4.289642608750889</v>
       </c>
       <c r="R7">
-        <v>24.974746140091</v>
+        <v>38.606783478758</v>
       </c>
       <c r="S7">
-        <v>0.005019627568443891</v>
+        <v>0.002800656135556733</v>
       </c>
       <c r="T7">
-        <v>0.005019627568443891</v>
+        <v>0.002800656135556733</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>21.64753366666666</v>
+        <v>18.442128</v>
       </c>
       <c r="H8">
-        <v>64.942601</v>
+        <v>55.326384</v>
       </c>
       <c r="I8">
-        <v>0.1904908963811095</v>
+        <v>0.1546543041582415</v>
       </c>
       <c r="J8">
-        <v>0.1904908963811095</v>
+        <v>0.1546543041582415</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.699506666666667</v>
+        <v>12.67919733333333</v>
       </c>
       <c r="N8">
-        <v>14.09852</v>
+        <v>38.037592</v>
       </c>
       <c r="O8">
-        <v>0.9660495246229048</v>
+        <v>0.9871416146107245</v>
       </c>
       <c r="P8">
-        <v>0.9660495246229047</v>
+        <v>0.9871416146107247</v>
       </c>
       <c r="Q8">
-        <v>101.7327287833911</v>
+        <v>233.831380158592</v>
       </c>
       <c r="R8">
-        <v>915.5945590505199</v>
+        <v>2104.482421427329</v>
       </c>
       <c r="S8">
-        <v>0.1840236398939618</v>
+        <v>0.1526656995132646</v>
       </c>
       <c r="T8">
-        <v>0.1840236398939618</v>
+        <v>0.1526656995132646</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>21.64753366666666</v>
+        <v>18.442128</v>
       </c>
       <c r="H9">
-        <v>64.942601</v>
+        <v>55.326384</v>
       </c>
       <c r="I9">
-        <v>0.1904908963811095</v>
+        <v>0.1546543041582415</v>
       </c>
       <c r="J9">
-        <v>0.1904908963811095</v>
+        <v>0.1546543041582415</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1651576666666666</v>
+        <v>0.1651576666666667</v>
       </c>
       <c r="N9">
-        <v>0.4954729999999999</v>
+        <v>0.495473</v>
       </c>
       <c r="O9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="P9">
-        <v>0.03395047537709521</v>
+        <v>0.01285838538927542</v>
       </c>
       <c r="Q9">
-        <v>3.575256149474777</v>
+        <v>3.045858828848</v>
       </c>
       <c r="R9">
-        <v>32.17730534527299</v>
+        <v>27.412729459632</v>
       </c>
       <c r="S9">
-        <v>0.006467256487147652</v>
+        <v>0.001988604644976888</v>
       </c>
       <c r="T9">
-        <v>0.006467256487147653</v>
+        <v>0.001988604644976888</v>
       </c>
     </row>
   </sheetData>
